--- a/static/files/KPI_template.xlsx
+++ b/static/files/KPI_template.xlsx
@@ -407,18 +407,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -685,77 +679,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1069,8 +1063,8 @@
   </sheetPr>
   <dimension ref="A1:AQ31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -1087,14 +1081,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
@@ -1187,16 +1181,16 @@
       <c r="AQ3" s="29"/>
     </row>
     <row r="4" spans="1:43" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="36"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1279,7 +1273,7 @@
       <c r="AQ5" s="3"/>
     </row>
     <row r="6" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="51" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="41"/>
@@ -1328,13 +1322,13 @@
       <c r="AQ6" s="3"/>
     </row>
     <row r="7" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="43"/>
@@ -1423,10 +1417,10 @@
     </row>
     <row r="9" spans="1:43" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="47"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="72" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="50"/>
@@ -1479,16 +1473,16 @@
       <c r="AQ9" s="29"/>
     </row>
     <row r="10" spans="1:43" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="59"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="55"/>
       <c r="I10" s="11"/>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
@@ -1526,111 +1520,111 @@
       <c r="AQ10" s="38"/>
     </row>
     <row r="11" spans="1:43" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="59"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:43" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="64"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="57"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="58"/>
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="57"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="58"/>
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:43" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="64"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="57"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="58"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="64"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="57"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="58"/>
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:43" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="64"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="57"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="58"/>
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="57"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="58"/>
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="64"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="57"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="58"/>
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="57"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="58"/>
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="44"/>
       <c r="F20" s="44"/>
       <c r="G20" s="48"/>
@@ -1638,7 +1632,7 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="74" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="46"/>
@@ -1647,57 +1641,57 @@
       <c r="E21" s="44"/>
       <c r="F21" s="44"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="52"/>
+      <c r="H21" s="73"/>
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="47"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1711,10 +1705,10 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="35"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
@@ -1733,10 +1727,10 @@
       <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="61"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="40"/>
       <c r="D29" s="10"/>
       <c r="E29" s="22"/>
@@ -1755,10 +1749,10 @@
       <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="61"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="40"/>
       <c r="D31" s="10"/>
       <c r="E31" s="22"/>
@@ -1768,6 +1762,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="B12:B13"/>
@@ -1783,32 +1802,7 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="C12:D13"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B23:H23"/>
     <mergeCell ref="C14:D15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/files/KPI_template.xlsx
+++ b/static/files/KPI_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -185,19 +185,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>总分</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="幼圆"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>绩效等级</t>
     </r>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -279,6 +266,14 @@
       </rPr>
       <t>部门管理层签字确认：</t>
     </r>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终评分</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -529,7 +524,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -688,30 +683,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -724,31 +761,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1061,10 +1074,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ31"/>
+  <dimension ref="A1:AQ32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -1081,14 +1094,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
@@ -1181,16 +1194,16 @@
       <c r="AQ3" s="29"/>
     </row>
     <row r="4" spans="1:43" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
       <c r="I4" s="36"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1417,10 +1430,10 @@
     </row>
     <row r="9" spans="1:43" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="47"/>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="59" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="50"/>
@@ -1473,16 +1486,16 @@
       <c r="AQ9" s="29"/>
     </row>
     <row r="10" spans="1:43" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="55"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="66"/>
       <c r="I10" s="11"/>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
@@ -1520,148 +1533,148 @@
       <c r="AQ10" s="38"/>
     </row>
     <row r="11" spans="1:43" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="55"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="66"/>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:43" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="60"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="58"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="64"/>
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="60"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="58"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="64"/>
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:43" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="60"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="58"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="64"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="60"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="58"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="64"/>
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:43" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="60"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="58"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="64"/>
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="60"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="58"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="64"/>
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="60"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="58"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="64"/>
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="60"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="58"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="64"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="56"/>
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="A21" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="44"/>
       <c r="F21" s="44"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="73"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
+    <row r="22" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="60"/>
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="69"/>
+        <v>13</v>
+      </c>
+      <c r="B23" s="62"/>
       <c r="C23" s="69"/>
       <c r="D23" s="69"/>
       <c r="E23" s="69"/>
@@ -1672,121 +1685,109 @@
     </row>
     <row r="24" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
+        <v>14</v>
+      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="47"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+    <row r="25" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="49"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="35"/>
+    <row r="26" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="47"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="49"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
       <c r="G27" s="9"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="49"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="68" t="s">
+    <row r="28" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="72"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="49"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="68"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="23"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="B12:B13"/>
@@ -1803,6 +1804,31 @@
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="C14:D15"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
